--- a/data/trans_bre/P1801_2016_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1801_2016_2023-Estudios-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>8.235978809327316</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>8.275586719870931</v>
+        <v>8.275586719870942</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.1434249591035342</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.1480147288115979</v>
+        <v>0.1480147288115981</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.936550890389775</v>
+        <v>3.726699633800195</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.898609507642824</v>
+        <v>3.386144815515625</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.06534623857979135</v>
+        <v>0.06365422808772406</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.04898774572364524</v>
+        <v>0.05767569871017477</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.31562669084436</v>
+        <v>12.88243278780552</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.67127640459304</v>
+        <v>12.74067030190852</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.24215651895382</v>
+        <v>0.2352773732698944</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.2407573914833612</v>
+        <v>0.2450733873420024</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>10.22138820978247</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>7.032278150737259</v>
+        <v>7.03227815073727</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.2345995327476847</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.1591821726019547</v>
+        <v>0.1591821726019549</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.402910597233419</v>
+        <v>7.046210744931095</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.994901844521427</v>
+        <v>4.136872646258111</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1659000691750478</v>
+        <v>0.1522747837177088</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.08754175454120665</v>
+        <v>0.08925386473963838</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.35592416997774</v>
+        <v>13.18431780120819</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.36894471020663</v>
+        <v>10.63020231089932</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3205823372552088</v>
+        <v>0.3110065779873712</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2493266065938448</v>
+        <v>0.2527251752249304</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.784737121156637</v>
+        <v>5.165972257400778</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.410006397328328</v>
+        <v>1.64619362520153</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.1274469841759952</v>
+        <v>0.1155081796199874</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.02367600261350439</v>
+        <v>0.02923563424026596</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.88198068747701</v>
+        <v>17.76712231715283</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.15929283401621</v>
+        <v>11.97981718394868</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.4734654327412716</v>
+        <v>0.4683538291538371</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.2394371225123871</v>
+        <v>0.2387788514658092</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>10.72019670116762</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>7.8931882911702</v>
+        <v>7.893188291170217</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.2309283497959938</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.1645007457703909</v>
+        <v>0.1645007457703913</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.135443018093465</v>
+        <v>8.646115485593988</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.593152091516865</v>
+        <v>5.439790686059253</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1714448982136954</v>
+        <v>0.1834726381231823</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1126776737880523</v>
+        <v>0.1081710200264779</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.22399068402447</v>
+        <v>13.282709607001</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.42041821838628</v>
+        <v>10.19761398004578</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2932020466127986</v>
+        <v>0.2951714835096307</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2237750454882244</v>
+        <v>0.2202292860733359</v>
       </c>
     </row>
     <row r="16">
